--- a/单周期硬布线控制器表达式自动生成2020-2-14.xlsx
+++ b/单周期硬布线控制器表达式自动生成2020-2-14.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\计算机硬件系统设计\cpu_24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2768C85-5021-4025-B4CD-1A5E971CD35F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225A2CB4-4EC1-4FD8-90E2-9DD9CFFBFA9D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28560" windowHeight="11616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="123">
   <si>
     <t>#</t>
   </si>
@@ -853,6 +853,14 @@
     <t>BLTZ</t>
     <phoneticPr fontId="28" type="noConversion"/>
   </si>
+  <si>
+    <t>RsRead</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>RtRead</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1520,30 +1528,20 @@
     <xf numFmtId="0" fontId="16" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="19">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2076,8 +2074,8 @@
   </sheetPr>
   <dimension ref="A1:AR61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P8" workbookViewId="0">
-      <selection activeCell="AL22" sqref="AL22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W7" sqref="W7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
@@ -2165,40 +2163,40 @@
       <c r="U1" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="66" t="s">
+      <c r="V1" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="66" t="s">
+      <c r="W1" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="66" t="s">
+      <c r="X1" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="66" t="s">
+      <c r="Y1" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="66" t="s">
+      <c r="Z1" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="66" t="s">
+      <c r="AA1" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="66" t="s">
+      <c r="AB1" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="66" t="s">
+      <c r="AC1" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="66" t="s">
+      <c r="AD1" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="66" t="s">
+      <c r="AE1" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="66" t="s">
+      <c r="AF1" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="66" t="s">
+      <c r="AG1" s="64" t="s">
         <v>32</v>
       </c>
       <c r="AH1" s="34" t="s">
@@ -2211,10 +2209,10 @@
         <v>120</v>
       </c>
       <c r="AK1" s="34" t="s">
-        <v>33</v>
+        <v>121</v>
       </c>
       <c r="AL1" s="34" t="s">
-        <v>33</v>
+        <v>122</v>
       </c>
       <c r="AM1" s="34" t="s">
         <v>33</v>
@@ -2335,7 +2333,9 @@
       <c r="AI2" s="44"/>
       <c r="AJ2" s="44"/>
       <c r="AK2" s="44"/>
-      <c r="AL2" s="44"/>
+      <c r="AL2" s="44">
+        <v>1</v>
+      </c>
       <c r="AM2" s="44"/>
       <c r="AN2" s="44"/>
       <c r="AO2" s="44"/>
@@ -2443,7 +2443,9 @@
       <c r="AI3" s="28"/>
       <c r="AJ3" s="28"/>
       <c r="AK3" s="28"/>
-      <c r="AL3" s="28"/>
+      <c r="AL3" s="28">
+        <v>1</v>
+      </c>
       <c r="AM3" s="28"/>
       <c r="AN3" s="28"/>
       <c r="AO3" s="28"/>
@@ -2551,7 +2553,9 @@
       <c r="AI4" s="44"/>
       <c r="AJ4" s="44"/>
       <c r="AK4" s="44"/>
-      <c r="AL4" s="44"/>
+      <c r="AL4" s="44">
+        <v>1</v>
+      </c>
       <c r="AM4" s="44"/>
       <c r="AN4" s="44"/>
       <c r="AO4" s="44"/>
@@ -2658,8 +2662,12 @@
       <c r="AH5" s="28"/>
       <c r="AI5" s="28"/>
       <c r="AJ5" s="28"/>
-      <c r="AK5" s="28"/>
-      <c r="AL5" s="28"/>
+      <c r="AK5" s="28">
+        <v>1</v>
+      </c>
+      <c r="AL5" s="28">
+        <v>1</v>
+      </c>
       <c r="AM5" s="28"/>
       <c r="AN5" s="28"/>
       <c r="AO5" s="28"/>
@@ -2766,8 +2774,12 @@
       <c r="AH6" s="44"/>
       <c r="AI6" s="44"/>
       <c r="AJ6" s="44"/>
-      <c r="AK6" s="44"/>
-      <c r="AL6" s="44"/>
+      <c r="AK6" s="44">
+        <v>1</v>
+      </c>
+      <c r="AL6" s="44">
+        <v>1</v>
+      </c>
       <c r="AM6" s="44"/>
       <c r="AN6" s="44"/>
       <c r="AO6" s="44"/>
@@ -2874,8 +2886,12 @@
       <c r="AH7" s="28"/>
       <c r="AI7" s="28"/>
       <c r="AJ7" s="28"/>
-      <c r="AK7" s="28"/>
-      <c r="AL7" s="28"/>
+      <c r="AK7" s="28">
+        <v>1</v>
+      </c>
+      <c r="AL7" s="28">
+        <v>1</v>
+      </c>
       <c r="AM7" s="28"/>
       <c r="AN7" s="28"/>
       <c r="AO7" s="28"/>
@@ -2982,8 +2998,12 @@
       <c r="AH8" s="44"/>
       <c r="AI8" s="44"/>
       <c r="AJ8" s="44"/>
-      <c r="AK8" s="44"/>
-      <c r="AL8" s="44"/>
+      <c r="AK8" s="44">
+        <v>1</v>
+      </c>
+      <c r="AL8" s="44">
+        <v>1</v>
+      </c>
       <c r="AM8" s="44"/>
       <c r="AN8" s="44"/>
       <c r="AO8" s="44"/>
@@ -3090,8 +3110,12 @@
       <c r="AH9" s="28"/>
       <c r="AI9" s="28"/>
       <c r="AJ9" s="28"/>
-      <c r="AK9" s="28"/>
-      <c r="AL9" s="28"/>
+      <c r="AK9" s="28">
+        <v>1</v>
+      </c>
+      <c r="AL9" s="28">
+        <v>1</v>
+      </c>
       <c r="AM9" s="28"/>
       <c r="AN9" s="28"/>
       <c r="AO9" s="28"/>
@@ -3198,8 +3222,12 @@
       <c r="AH10" s="44"/>
       <c r="AI10" s="44"/>
       <c r="AJ10" s="44"/>
-      <c r="AK10" s="44"/>
-      <c r="AL10" s="44"/>
+      <c r="AK10" s="44">
+        <v>1</v>
+      </c>
+      <c r="AL10" s="44">
+        <v>1</v>
+      </c>
       <c r="AM10" s="44"/>
       <c r="AN10" s="44"/>
       <c r="AO10" s="44"/>
@@ -3306,8 +3334,12 @@
       <c r="AH11" s="28"/>
       <c r="AI11" s="28"/>
       <c r="AJ11" s="28"/>
-      <c r="AK11" s="28"/>
-      <c r="AL11" s="28"/>
+      <c r="AK11" s="28">
+        <v>1</v>
+      </c>
+      <c r="AL11" s="28">
+        <v>1</v>
+      </c>
       <c r="AM11" s="28"/>
       <c r="AN11" s="28"/>
       <c r="AO11" s="28"/>
@@ -3414,8 +3446,12 @@
       <c r="AH12" s="44"/>
       <c r="AI12" s="44"/>
       <c r="AJ12" s="44"/>
-      <c r="AK12" s="44"/>
-      <c r="AL12" s="44"/>
+      <c r="AK12" s="44">
+        <v>1</v>
+      </c>
+      <c r="AL12" s="44">
+        <v>1</v>
+      </c>
       <c r="AM12" s="44"/>
       <c r="AN12" s="44"/>
       <c r="AO12" s="44"/>
@@ -3522,7 +3558,9 @@
       <c r="AH13" s="28"/>
       <c r="AI13" s="28"/>
       <c r="AJ13" s="28"/>
-      <c r="AK13" s="28"/>
+      <c r="AK13" s="28">
+        <v>1</v>
+      </c>
       <c r="AL13" s="28"/>
       <c r="AM13" s="28"/>
       <c r="AN13" s="28"/>
@@ -3952,8 +3990,12 @@
       <c r="AH17" s="28"/>
       <c r="AI17" s="28"/>
       <c r="AJ17" s="28"/>
-      <c r="AK17" s="28"/>
-      <c r="AL17" s="28"/>
+      <c r="AK17" s="28">
+        <v>1</v>
+      </c>
+      <c r="AL17" s="28">
+        <v>1</v>
+      </c>
       <c r="AM17" s="28"/>
       <c r="AN17" s="28"/>
       <c r="AO17" s="28"/>
@@ -4060,8 +4102,12 @@
       <c r="AH18" s="44"/>
       <c r="AI18" s="44"/>
       <c r="AJ18" s="44"/>
-      <c r="AK18" s="44"/>
-      <c r="AL18" s="44"/>
+      <c r="AK18" s="44">
+        <v>1</v>
+      </c>
+      <c r="AL18" s="44">
+        <v>1</v>
+      </c>
       <c r="AM18" s="44"/>
       <c r="AN18" s="44"/>
       <c r="AO18" s="44"/>
@@ -4170,7 +4216,9 @@
       <c r="AH19" s="28"/>
       <c r="AI19" s="28"/>
       <c r="AJ19" s="28"/>
-      <c r="AK19" s="28"/>
+      <c r="AK19" s="28">
+        <v>1</v>
+      </c>
       <c r="AL19" s="28"/>
       <c r="AM19" s="28"/>
       <c r="AN19" s="28"/>
@@ -4278,7 +4326,9 @@
       <c r="AH20" s="44"/>
       <c r="AI20" s="44"/>
       <c r="AJ20" s="44"/>
-      <c r="AK20" s="44"/>
+      <c r="AK20" s="44">
+        <v>1</v>
+      </c>
       <c r="AL20" s="44"/>
       <c r="AM20" s="44"/>
       <c r="AN20" s="44"/>
@@ -4386,7 +4436,9 @@
       <c r="AH21" s="28"/>
       <c r="AI21" s="28"/>
       <c r="AJ21" s="28"/>
-      <c r="AK21" s="28"/>
+      <c r="AK21" s="28">
+        <v>1</v>
+      </c>
       <c r="AL21" s="28"/>
       <c r="AM21" s="28"/>
       <c r="AN21" s="28"/>
@@ -4496,7 +4548,9 @@
       <c r="AH22" s="44"/>
       <c r="AI22" s="44"/>
       <c r="AJ22" s="44"/>
-      <c r="AK22" s="44"/>
+      <c r="AK22" s="44">
+        <v>1</v>
+      </c>
       <c r="AL22" s="44"/>
       <c r="AM22" s="44"/>
       <c r="AN22" s="44"/>
@@ -4604,7 +4658,9 @@
       <c r="AH23" s="28"/>
       <c r="AI23" s="28"/>
       <c r="AJ23" s="28"/>
-      <c r="AK23" s="28"/>
+      <c r="AK23" s="28">
+        <v>1</v>
+      </c>
       <c r="AL23" s="28"/>
       <c r="AM23" s="28"/>
       <c r="AN23" s="28"/>
@@ -4714,7 +4770,9 @@
       <c r="AH24" s="44"/>
       <c r="AI24" s="44"/>
       <c r="AJ24" s="44"/>
-      <c r="AK24" s="44"/>
+      <c r="AK24" s="44">
+        <v>1</v>
+      </c>
       <c r="AL24" s="44"/>
       <c r="AM24" s="44"/>
       <c r="AN24" s="44"/>
@@ -4822,7 +4880,9 @@
       <c r="AH25" s="28"/>
       <c r="AI25" s="28"/>
       <c r="AJ25" s="28"/>
-      <c r="AK25" s="28"/>
+      <c r="AK25" s="28">
+        <v>1</v>
+      </c>
       <c r="AL25" s="28"/>
       <c r="AM25" s="28"/>
       <c r="AN25" s="28"/>
@@ -5218,8 +5278,12 @@
       <c r="AH29" s="28"/>
       <c r="AI29" s="28"/>
       <c r="AJ29" s="28"/>
-      <c r="AK29" s="28"/>
-      <c r="AL29" s="28"/>
+      <c r="AK29" s="28">
+        <v>1</v>
+      </c>
+      <c r="AL29" s="28">
+        <v>1</v>
+      </c>
       <c r="AM29" s="28"/>
       <c r="AN29" s="28"/>
       <c r="AO29" s="28"/>
@@ -5438,7 +5502,9 @@
         <v>1</v>
       </c>
       <c r="AJ31" s="28"/>
-      <c r="AK31" s="28"/>
+      <c r="AK31" s="28">
+        <v>1</v>
+      </c>
       <c r="AL31" s="28"/>
       <c r="AM31" s="28"/>
       <c r="AN31" s="28"/>
@@ -5546,7 +5612,9 @@
       <c r="AJ32" s="44">
         <v>1</v>
       </c>
-      <c r="AK32" s="44"/>
+      <c r="AK32" s="44">
+        <v>1</v>
+      </c>
       <c r="AL32" s="44"/>
       <c r="AM32" s="44"/>
       <c r="AN32" s="44"/>
@@ -8307,12 +8375,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK2:AL3">
-    <cfRule type="cellIs" dxfId="19" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="33" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM2:AN3">
-    <cfRule type="cellIs" dxfId="18" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="30" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8332,12 +8400,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH2:AI3">
-    <cfRule type="cellIs" dxfId="17" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="25" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ2:AJ3">
-    <cfRule type="cellIs" dxfId="16" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="22" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8417,7 +8485,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V2:Z16">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8427,7 +8495,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA2:AG24">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8616,11 +8684,11 @@
       </c>
       <c r="AJ1" s="34" t="str">
         <f>真值表!AK1</f>
-        <v>XXX</v>
+        <v>RsRead</v>
       </c>
       <c r="AK1" s="34" t="str">
         <f>真值表!AL1</f>
-        <v>XXX</v>
+        <v>RtRead</v>
       </c>
       <c r="AL1" s="34" t="str">
         <f>真值表!AM1</f>
@@ -8794,7 +8862,7 @@
       </c>
       <c r="AK2" s="33" t="str">
         <f>IF(真值表!AL2=1,$P2&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+</v>
       </c>
       <c r="AL2" s="33" t="str">
         <f>IF(真值表!AM2=1,$P2&amp;"+","")</f>
@@ -8968,7 +9036,7 @@
       </c>
       <c r="AK3" s="57" t="str">
         <f>IF(真值表!AL3=1,$P3&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp; F0+</v>
       </c>
       <c r="AL3" s="57" t="str">
         <f>IF(真值表!AM3=1,$P3&amp;"+","")</f>
@@ -9142,7 +9210,7 @@
       </c>
       <c r="AK4" s="33" t="str">
         <f>IF(真值表!AL4=1,$P4&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+</v>
       </c>
       <c r="AL4" s="33" t="str">
         <f>IF(真值表!AM4=1,$P4&amp;"+","")</f>
@@ -9312,11 +9380,11 @@
       </c>
       <c r="AJ5" s="57" t="str">
         <f>IF(真值表!AK5=1,$P5&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+</v>
       </c>
       <c r="AK5" s="57" t="str">
         <f>IF(真值表!AL5=1,$P5&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+</v>
       </c>
       <c r="AL5" s="57" t="str">
         <f>IF(真值表!AM5=1,$P5&amp;"+","")</f>
@@ -9486,11 +9554,11 @@
       </c>
       <c r="AJ6" s="33" t="str">
         <f>IF(真值表!AK6=1,$P6&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp; F0+</v>
       </c>
       <c r="AK6" s="33" t="str">
         <f>IF(真值表!AL6=1,$P6&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp; F0+</v>
       </c>
       <c r="AL6" s="33" t="str">
         <f>IF(真值表!AM6=1,$P6&amp;"+","")</f>
@@ -9660,11 +9728,11 @@
       </c>
       <c r="AJ7" s="57" t="str">
         <f>IF(真值表!AK7=1,$P7&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+</v>
       </c>
       <c r="AK7" s="57" t="str">
         <f>IF(真值表!AL7=1,$P7&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+</v>
       </c>
       <c r="AL7" s="57" t="str">
         <f>IF(真值表!AM7=1,$P7&amp;"+","")</f>
@@ -9834,11 +9902,11 @@
       </c>
       <c r="AJ8" s="33" t="str">
         <f>IF(真值表!AK8=1,$P8&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+</v>
       </c>
       <c r="AK8" s="33" t="str">
         <f>IF(真值表!AL8=1,$P8&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+</v>
       </c>
       <c r="AL8" s="33" t="str">
         <f>IF(真值表!AM8=1,$P8&amp;"+","")</f>
@@ -10008,11 +10076,11 @@
       </c>
       <c r="AJ9" s="57" t="str">
         <f>IF(真值表!AK9=1,$P9&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp; F0+</v>
       </c>
       <c r="AK9" s="57" t="str">
         <f>IF(真值表!AL9=1,$P9&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp; F0+</v>
       </c>
       <c r="AL9" s="57" t="str">
         <f>IF(真值表!AM9=1,$P9&amp;"+","")</f>
@@ -10182,11 +10250,11 @@
       </c>
       <c r="AJ10" s="33" t="str">
         <f>IF(真值表!AK10=1,$P10&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+</v>
       </c>
       <c r="AK10" s="33" t="str">
         <f>IF(真值表!AL10=1,$P10&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+</v>
       </c>
       <c r="AL10" s="33" t="str">
         <f>IF(真值表!AM10=1,$P10&amp;"+","")</f>
@@ -10356,11 +10424,11 @@
       </c>
       <c r="AJ11" s="57" t="str">
         <f>IF(真值表!AK11=1,$P11&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp;~F0+</v>
       </c>
       <c r="AK11" s="57" t="str">
         <f>IF(真值表!AL11=1,$P11&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp;~F0+</v>
       </c>
       <c r="AL11" s="57" t="str">
         <f>IF(真值表!AM11=1,$P11&amp;"+","")</f>
@@ -10530,11 +10598,11 @@
       </c>
       <c r="AJ12" s="33" t="str">
         <f>IF(真值表!AK12=1,$P12&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp; F0+</v>
       </c>
       <c r="AK12" s="33" t="str">
         <f>IF(真值表!AL12=1,$P12&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp; F0+</v>
       </c>
       <c r="AL12" s="33" t="str">
         <f>IF(真值表!AM12=1,$P12&amp;"+","")</f>
@@ -10704,7 +10772,7 @@
       </c>
       <c r="AJ13" s="57" t="str">
         <f>IF(真值表!AK13=1,$P13&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp; F3&amp;~F2&amp;~F1&amp;~F0+</v>
       </c>
       <c r="AK13" s="57" t="str">
         <f>IF(真值表!AL13=1,$P13&amp;"+","")</f>
@@ -11400,11 +11468,11 @@
       </c>
       <c r="AJ17" s="57" t="str">
         <f>IF(真值表!AK17=1,$P17&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp;~OP1&amp;~OP0+</v>
       </c>
       <c r="AK17" s="57" t="str">
         <f>IF(真值表!AL17=1,$P17&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp;~OP1&amp;~OP0+</v>
       </c>
       <c r="AL17" s="57" t="str">
         <f>IF(真值表!AM17=1,$P17&amp;"+","")</f>
@@ -11574,11 +11642,11 @@
       </c>
       <c r="AJ18" s="33" t="str">
         <f>IF(真值表!AK18=1,$P18&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp;~OP1&amp; OP0+</v>
       </c>
       <c r="AK18" s="33" t="str">
         <f>IF(真值表!AL18=1,$P18&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp;~OP1&amp; OP0+</v>
       </c>
       <c r="AL18" s="33" t="str">
         <f>IF(真值表!AM18=1,$P18&amp;"+","")</f>
@@ -11748,7 +11816,7 @@
       </c>
       <c r="AJ19" s="57" t="str">
         <f>IF(真值表!AK19=1,$P19&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp;~OP0+</v>
       </c>
       <c r="AK19" s="57" t="str">
         <f>IF(真值表!AL19=1,$P19&amp;"+","")</f>
@@ -11922,7 +11990,7 @@
       </c>
       <c r="AJ20" s="33" t="str">
         <f>IF(真值表!AK20=1,$P20&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp;~OP0+</v>
       </c>
       <c r="AK20" s="33" t="str">
         <f>IF(真值表!AL20=1,$P20&amp;"+","")</f>
@@ -12096,7 +12164,7 @@
       </c>
       <c r="AJ21" s="57" t="str">
         <f>IF(真值表!AK21=1,$P21&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+</v>
       </c>
       <c r="AK21" s="57" t="str">
         <f>IF(真值表!AL21=1,$P21&amp;"+","")</f>
@@ -12270,7 +12338,7 @@
       </c>
       <c r="AJ22" s="33" t="str">
         <f>IF(真值表!AK22=1,$P22&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp;~OP0+</v>
       </c>
       <c r="AK22" s="33" t="str">
         <f>IF(真值表!AL22=1,$P22&amp;"+","")</f>
@@ -12444,7 +12512,7 @@
       </c>
       <c r="AJ23" s="57" t="str">
         <f>IF(真值表!AK23=1,$P23&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp; OP0+</v>
       </c>
       <c r="AK23" s="57" t="str">
         <f>IF(真值表!AL23=1,$P23&amp;"+","")</f>
@@ -12618,7 +12686,7 @@
       </c>
       <c r="AJ24" s="33" t="str">
         <f>IF(真值表!AK24=1,$P24&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+</v>
       </c>
       <c r="AK24" s="33" t="str">
         <f>IF(真值表!AL24=1,$P24&amp;"+","")</f>
@@ -12792,7 +12860,7 @@
       </c>
       <c r="AJ25" s="57" t="str">
         <f>IF(真值表!AK25=1,$P25&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+</v>
       </c>
       <c r="AK25" s="57" t="str">
         <f>IF(真值表!AL25=1,$P25&amp;"+","")</f>
@@ -13488,11 +13556,11 @@
       </c>
       <c r="AJ29" s="57" t="str">
         <f>IF(真值表!AK29=1,$P29&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp;~F0+</v>
       </c>
       <c r="AK29" s="57" t="str">
         <f>IF(真值表!AL29=1,$P29&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp;~F0+</v>
       </c>
       <c r="AL29" s="57" t="str">
         <f>IF(真值表!AM29=1,$P29&amp;"+","")</f>
@@ -13836,7 +13904,7 @@
       </c>
       <c r="AJ31" s="57" t="str">
         <f>IF(真值表!AK31=1,$P31&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0+</v>
       </c>
       <c r="AK31" s="57" t="str">
         <f>IF(真值表!AL31=1,$P31&amp;"+","")</f>
@@ -14010,7 +14078,7 @@
       </c>
       <c r="AJ32" s="33" t="str">
         <f>IF(真值表!AK32=1,$P32&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp; OP0+</v>
       </c>
       <c r="AK32" s="33" t="str">
         <f>IF(真值表!AL32=1,$P32&amp;"+","")</f>
@@ -19088,24 +19156,24 @@
       </c>
     </row>
     <row r="62" spans="1:50" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A62" s="64" t="s">
+      <c r="A62" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="B62" s="64"/>
-      <c r="C62" s="64"/>
-      <c r="D62" s="64"/>
-      <c r="E62" s="64"/>
-      <c r="F62" s="64"/>
-      <c r="G62" s="64"/>
-      <c r="H62" s="64"/>
-      <c r="I62" s="64"/>
-      <c r="J62" s="64"/>
-      <c r="K62" s="64"/>
-      <c r="L62" s="64"/>
-      <c r="M62" s="64"/>
-      <c r="N62" s="64"/>
-      <c r="O62" s="64"/>
-      <c r="P62" s="64"/>
+      <c r="B62" s="65"/>
+      <c r="C62" s="65"/>
+      <c r="D62" s="65"/>
+      <c r="E62" s="65"/>
+      <c r="F62" s="65"/>
+      <c r="G62" s="65"/>
+      <c r="H62" s="65"/>
+      <c r="I62" s="65"/>
+      <c r="J62" s="65"/>
+      <c r="K62" s="65"/>
+      <c r="L62" s="65"/>
+      <c r="M62" s="65"/>
+      <c r="N62" s="65"/>
+      <c r="O62" s="65"/>
+      <c r="P62" s="65"/>
       <c r="Q62" s="39" t="str">
         <f t="shared" ref="Q62:AQ62" si="1">IF(LEN(Q63)&gt;1,LEFT(Q63,LEN(Q63)-1),"")</f>
         <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp; OP0</v>
@@ -19184,11 +19252,11 @@
       </c>
       <c r="AJ62" s="41" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp; F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp; OP0+ OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp;~F0+ OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp; OP0</v>
       </c>
       <c r="AK62" s="41" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp;~F0</v>
       </c>
       <c r="AL62" s="41" t="str">
         <f t="shared" si="1"/>
@@ -19295,11 +19363,11 @@
       </c>
       <c r="AJ63" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp; F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp; OP0+ OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp;~F0+ OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp; OP0+</v>
       </c>
       <c r="AK63" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp;~F0+</v>
       </c>
       <c r="AL63" t="str">
         <f t="shared" si="2"/>
@@ -19356,19 +19424,19 @@
       </c>
     </row>
     <row r="65" spans="18:32" ht="20.399999999999999" x14ac:dyDescent="0.45">
-      <c r="V65" s="65" t="s">
+      <c r="V65" s="66" t="s">
         <v>115</v>
       </c>
-      <c r="W65" s="65"/>
-      <c r="X65" s="65"/>
-      <c r="Y65" s="65"/>
-      <c r="Z65" s="65"/>
-      <c r="AA65" s="65"/>
-      <c r="AB65" s="65"/>
-      <c r="AC65" s="65"/>
-      <c r="AD65" s="65"/>
-      <c r="AE65" s="65"/>
-      <c r="AF65" s="65"/>
+      <c r="W65" s="66"/>
+      <c r="X65" s="66"/>
+      <c r="Y65" s="66"/>
+      <c r="Z65" s="66"/>
+      <c r="AA65" s="66"/>
+      <c r="AB65" s="66"/>
+      <c r="AC65" s="66"/>
+      <c r="AD65" s="66"/>
+      <c r="AE65" s="66"/>
+      <c r="AF65" s="66"/>
     </row>
     <row r="67" spans="18:32" ht="16.2" x14ac:dyDescent="0.25">
       <c r="R67" s="42" t="s">
@@ -19385,22 +19453,22 @@
   </mergeCells>
   <phoneticPr fontId="28" type="noConversion"/>
   <conditionalFormatting sqref="P1 Q63:AX63 Q62:AQ62">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q64:AF64 Q1:AF1 Q68:AF1048576 Q67 S67:AF67 Q66:AF66 Q65:V65 Q2:AQ3">
-    <cfRule type="cellIs" dxfId="4" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG64:AJ1048576 AG1:AQ1">
-    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q4:AQ61">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/单周期硬布线控制器表达式自动生成2020-2-14.xlsx
+++ b/单周期硬布线控制器表达式自动生成2020-2-14.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\计算机硬件系统设计\cpu_24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225A2CB4-4EC1-4FD8-90E2-9DD9CFFBFA9D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D047B0D-8C5B-4E9E-B4CF-793E39CDCFE2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28560" windowHeight="11616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2074,8 +2074,8 @@
   </sheetPr>
   <dimension ref="A1:AR61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W7" sqref="W7"/>
+    <sheetView tabSelected="1" topLeftCell="K7" workbookViewId="0">
+      <selection activeCell="AM17" sqref="AM17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
@@ -4883,7 +4883,9 @@
       <c r="AK25" s="28">
         <v>1</v>
       </c>
-      <c r="AL25" s="28"/>
+      <c r="AL25" s="28">
+        <v>1</v>
+      </c>
       <c r="AM25" s="28"/>
       <c r="AN25" s="28"/>
       <c r="AO25" s="28"/>
@@ -12864,7 +12866,7 @@
       </c>
       <c r="AK25" s="57" t="str">
         <f>IF(真值表!AL25=1,$P25&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+</v>
       </c>
       <c r="AL25" s="57" t="str">
         <f>IF(真值表!AM25=1,$P25&amp;"+","")</f>
@@ -19256,7 +19258,7 @@
       </c>
       <c r="AK62" s="41" t="str">
         <f t="shared" si="1"/>
-        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp;~F0</v>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp;~OP1&amp; OP0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp;~F0</v>
       </c>
       <c r="AL62" s="41" t="str">
         <f t="shared" si="1"/>
@@ -19367,7 +19369,7 @@
       </c>
       <c r="AK63" t="str">
         <f t="shared" si="2"/>
-        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp;~F0+</v>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp;~OP1&amp; OP0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp;~F0+</v>
       </c>
       <c r="AL63" t="str">
         <f t="shared" si="2"/>

--- a/单周期硬布线控制器表达式自动生成2020-2-14.xlsx
+++ b/单周期硬布线控制器表达式自动生成2020-2-14.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\计算机硬件系统设计\cpu_24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D047B0D-8C5B-4E9E-B4CF-793E39CDCFE2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F6EA1C4-BB73-4C87-A9EA-6E2B7B65E8D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28560" windowHeight="11616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="125">
   <si>
     <t>#</t>
   </si>
@@ -859,6 +859,14 @@
   </si>
   <si>
     <t>RtRead</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERET</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
     <phoneticPr fontId="28" type="noConversion"/>
   </si>
 </sst>
@@ -2074,8 +2082,8 @@
   </sheetPr>
   <dimension ref="A1:AR61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K7" workbookViewId="0">
-      <selection activeCell="AM17" sqref="AM17"/>
+    <sheetView tabSelected="1" topLeftCell="L13" workbookViewId="0">
+      <selection activeCell="AM27" sqref="AM27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
@@ -2215,7 +2223,7 @@
         <v>122</v>
       </c>
       <c r="AM1" s="34" t="s">
-        <v>33</v>
+        <v>123</v>
       </c>
       <c r="AN1" s="34" t="s">
         <v>33</v>
@@ -4897,58 +4905,66 @@
       <c r="A26" s="43">
         <v>25</v>
       </c>
-      <c r="B26" s="40"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="44" t="str">
+      <c r="B26" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="C26" s="44">
+        <v>16</v>
+      </c>
+      <c r="D26" s="45">
+        <v>24</v>
+      </c>
+      <c r="E26" s="44">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F26" s="44" t="str">
+        <v>0</v>
+      </c>
+      <c r="F26" s="44">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G26" s="44" t="str">
+        <v>1</v>
+      </c>
+      <c r="G26" s="44">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H26" s="44" t="str">
+        <v>0</v>
+      </c>
+      <c r="H26" s="44">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I26" s="44" t="str">
+        <v>0</v>
+      </c>
+      <c r="I26" s="44">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="J26" s="44" t="str">
+        <v>0</v>
+      </c>
+      <c r="J26" s="44">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="K26" s="45" t="str">
+        <v>0</v>
+      </c>
+      <c r="K26" s="45">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="L26" s="45" t="str">
+        <v>0</v>
+      </c>
+      <c r="L26" s="45">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="M26" s="45" t="str">
+        <v>1</v>
+      </c>
+      <c r="M26" s="45">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="N26" s="45" t="str">
+        <v>1</v>
+      </c>
+      <c r="N26" s="45">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="O26" s="45" t="str">
+        <v>0</v>
+      </c>
+      <c r="O26" s="45">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="P26" s="25" t="str">
+        <v>0</v>
+      </c>
+      <c r="P26" s="25">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="Q26" s="46"/>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="46" t="s">
+        <v>124</v>
+      </c>
       <c r="R26" s="38" t="str">
         <f t="shared" si="12"/>
         <v>X</v>
@@ -4982,7 +4998,9 @@
       <c r="AJ26" s="44"/>
       <c r="AK26" s="44"/>
       <c r="AL26" s="44"/>
-      <c r="AM26" s="44"/>
+      <c r="AM26" s="44">
+        <v>1</v>
+      </c>
       <c r="AN26" s="44"/>
       <c r="AO26" s="44"/>
       <c r="AP26" s="44"/>
@@ -8694,7 +8712,7 @@
       </c>
       <c r="AL1" s="34" t="str">
         <f>真值表!AM1</f>
-        <v>XXX</v>
+        <v>ERET</v>
       </c>
       <c r="AM1" s="34" t="str">
         <f>真值表!AN1</f>
@@ -12894,69 +12912,69 @@
       </c>
     </row>
     <row r="26" spans="1:43" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A26" s="23">
+      <c r="A26" s="23" t="str">
         <f>真值表!B26</f>
-        <v>0</v>
+        <v>ERET</v>
       </c>
       <c r="B26" s="24">
         <f>真值表!C26</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C26" s="25">
         <f>真值表!D26</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D26" s="26" t="str">
         <f>IF(真值表!E26=1," "&amp;真值表!E$1&amp;"&amp;",IF(真值表!E26=0,"~"&amp;真值表!E$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP5&amp;</v>
       </c>
       <c r="E26" s="26" t="str">
         <f>IF(真值表!F26=1," "&amp;真值表!F$1&amp;"&amp;",IF(真值表!F26=0,"~"&amp;真值表!F$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP4&amp;</v>
       </c>
       <c r="F26" s="26" t="str">
         <f>IF(真值表!G26=1," "&amp;真值表!G$1&amp;"&amp;",IF(真值表!G26=0,"~"&amp;真值表!G$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP3&amp;</v>
       </c>
       <c r="G26" s="26" t="str">
         <f>IF(真值表!H26=1," "&amp;真值表!H$1&amp;"&amp;",IF(真值表!H26=0,"~"&amp;真值表!H$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP2&amp;</v>
       </c>
       <c r="H26" s="26" t="str">
         <f>IF(真值表!I26=1," "&amp;真值表!I$1&amp;"&amp;",IF(真值表!I26=0,"~"&amp;真值表!I$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP1&amp;</v>
       </c>
       <c r="I26" s="26" t="str">
         <f>IF(真值表!J26=1," "&amp;真值表!J$1&amp;"&amp;",IF(真值表!J26=0,"~"&amp;真值表!J$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP0&amp;</v>
       </c>
       <c r="J26" s="63" t="str">
         <f>IF(真值表!K26=1," "&amp;真值表!K$1&amp;"&amp;",IF(真值表!K26=0,"~"&amp;真值表!K$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F5&amp;</v>
       </c>
       <c r="K26" s="63" t="str">
         <f>IF(真值表!L26=1," "&amp;真值表!L$1&amp;"&amp;",IF(真值表!L26=0,"~"&amp;真值表!L$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> F4&amp;</v>
       </c>
       <c r="L26" s="63" t="str">
         <f>IF(真值表!M26=1," "&amp;真值表!M$1&amp;"&amp;",IF(真值表!M26=0,"~"&amp;真值表!M$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> F3&amp;</v>
       </c>
       <c r="M26" s="63" t="str">
         <f>IF(真值表!N26=1," "&amp;真值表!N$1&amp;"&amp;",IF(真值表!N26=0,"~"&amp;真值表!N$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F2&amp;</v>
       </c>
       <c r="N26" s="63" t="str">
         <f>IF(真值表!O26=1," "&amp;真值表!O$1&amp;"&amp;",IF(真值表!O26=0,"~"&amp;真值表!O$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F1&amp;</v>
       </c>
       <c r="O26" s="63" t="str">
         <f>IF(真值表!P26=1," "&amp;真值表!P$1&amp;"&amp;",IF(真值表!P26=0,"~"&amp;真值表!P$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F0&amp;</v>
       </c>
       <c r="P26" s="30" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>~OP5&amp; OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp; F4&amp; F3&amp;~F2&amp;~F1&amp;~F0</v>
       </c>
       <c r="Q26" s="33" t="str">
         <f>IF(真值表!R26=1,$P26&amp;"+","")</f>
@@ -13044,7 +13062,7 @@
       </c>
       <c r="AL26" s="33" t="str">
         <f>IF(真值表!AM26=1,$P26&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp; OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp; F4&amp; F3&amp;~F2&amp;~F1&amp;~F0+</v>
       </c>
       <c r="AM26" s="33" t="str">
         <f>IF(真值表!AN26=1,$P26&amp;"+","")</f>
@@ -19262,7 +19280,7 @@
       </c>
       <c r="AL62" s="41" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>~OP5&amp; OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp; F4&amp; F3&amp;~F2&amp;~F1&amp;~F0</v>
       </c>
       <c r="AM62" s="41" t="str">
         <f t="shared" si="1"/>
@@ -19373,7 +19391,7 @@
       </c>
       <c r="AL63" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>~OP5&amp; OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp; F4&amp; F3&amp;~F2&amp;~F1&amp;~F0+</v>
       </c>
       <c r="AM63" t="str">
         <f t="shared" si="2"/>

--- a/单周期硬布线控制器表达式自动生成2020-2-14.xlsx
+++ b/单周期硬布线控制器表达式自动生成2020-2-14.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\计算机硬件系统设计\cpu_24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F6EA1C4-BB73-4C87-A9EA-6E2B7B65E8D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAAD7B60-AB08-4F80-BBA2-66693B87BE9D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28560" windowHeight="11616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2082,8 +2082,8 @@
   </sheetPr>
   <dimension ref="A1:AR61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L13" workbookViewId="0">
-      <selection activeCell="AM27" sqref="AM27"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="AE23" sqref="AE23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
